--- a/icon-associations.xlsx
+++ b/icon-associations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\.vscode\extensions\CustomIcons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\.vscode\extensions\vscode-easy-icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Icon name</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>_text</t>
+  </si>
+  <si>
+    <t>_c</t>
+  </si>
+  <si>
+    <t>_c++</t>
+  </si>
+  <si>
+    <t>_css</t>
+  </si>
+  <si>
+    <t>_closure</t>
+  </si>
+  <si>
+    <t>_coffee</t>
   </si>
 </sst>
 </file>
@@ -480,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -539,7 +554,7 @@
         <v xml:space="preserve">            "iconPath": "./icons/png/generic.png"</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F15" si="1">_xlfn.CONCAT("        ",CHAR(34),A3,CHAR(34),": {",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),B3,CHAR(34),"}",IF(ISBLANK(A4),"",","))</f>
+        <f t="shared" ref="F3:F20" si="1">_xlfn.CONCAT("        ",CHAR(34),A3,CHAR(34),": {",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),B3,CHAR(34),"}",IF(ISBLANK(A4),"",","))</f>
         <v xml:space="preserve">        "_folder_closed": {"iconPath": "./icons/png/folder_closed.png"},</v>
       </c>
     </row>
@@ -585,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" ref="B6:B15" si="2">_xlfn.CONCAT("./icons/png/",RIGHT(A6,LEN(A6)-1),".png")</f>
+        <f t="shared" ref="B6:B20" si="2">_xlfn.CONCAT("./icons/png/",RIGHT(A6,LEN(A6)-1),".png")</f>
         <v>./icons/png/tcl.png</v>
       </c>
       <c r="E6" s="1" t="str">
@@ -756,16 +771,34 @@
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        "_text": {"iconPath": "./icons/png/text.png"}</v>
+        <v xml:space="preserve">        "_text": {"iconPath": "./icons/png/text.png"},</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>./icons/png/c.png</v>
+      </c>
       <c r="E16" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D14,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D14+1,1)),"        }","        },"))</f>
         <v xml:space="preserve">        },</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        "_c": {"iconPath": "./icons/png/c.png"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>./icons/png/c++.png</v>
+      </c>
       <c r="D17" s="5">
         <v>6</v>
       </c>
@@ -773,20 +806,53 @@
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D17,1)),"",_xlfn.CONCAT("        ",CHAR(34),INDEX($A$2:$B$110,D17,1),CHAR(34),": {"))</f>
         <v xml:space="preserve">        "_json": {</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        "_c++": {"iconPath": "./icons/png/c++.png"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>./icons/png/css.png</v>
+      </c>
       <c r="E18" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D17,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D17,2),CHAR(34)))</f>
         <v xml:space="preserve">            "iconPath": "./icons/png/json.png"</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        "_css": {"iconPath": "./icons/png/css.png"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>./icons/png/closure.png</v>
+      </c>
       <c r="E19" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D17,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D17+1,1)),"        }","        },"))</f>
         <v xml:space="preserve">        },</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        "_closure": {"iconPath": "./icons/png/closure.png"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>./icons/png/coffee.png</v>
+      </c>
       <c r="D20" s="5">
         <v>7</v>
       </c>
@@ -794,20 +860,24 @@
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D20,1)),"",_xlfn.CONCAT("        ",CHAR(34),INDEX($A$2:$B$110,D20,1),CHAR(34),": {"))</f>
         <v xml:space="preserve">        "_markdown": {</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        "_coffee": {"iconPath": "./icons/png/coffee.png"}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D20,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D20,2),CHAR(34)))</f>
         <v xml:space="preserve">            "iconPath": "./icons/png/markdown.png"</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D20,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D20+1,1)),"        }","        },"))</f>
         <v xml:space="preserve">        },</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5">
         <v>8</v>
       </c>
@@ -816,19 +886,19 @@
         <v xml:space="preserve">        "_batch": {</v>
       </c>
     </row>
-    <row r="24" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D23,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D23,2),CHAR(34)))</f>
         <v xml:space="preserve">            "iconPath": "./icons/png/batch.png"</v>
       </c>
     </row>
-    <row r="25" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D23,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D23+1,1)),"        }","        },"))</f>
         <v xml:space="preserve">        },</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="5">
         <v>9</v>
       </c>
@@ -837,19 +907,19 @@
         <v xml:space="preserve">        "_excel": {</v>
       </c>
     </row>
-    <row r="27" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D26,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D26,2),CHAR(34)))</f>
         <v xml:space="preserve">            "iconPath": "./icons/png/excel.png"</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D26,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D26+1,1)),"        }","        },"))</f>
         <v xml:space="preserve">        },</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5">
         <v>10</v>
       </c>
@@ -858,19 +928,19 @@
         <v xml:space="preserve">        "_word": {</v>
       </c>
     </row>
-    <row r="30" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D29,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D29,2),CHAR(34)))</f>
         <v xml:space="preserve">            "iconPath": "./icons/png/word.png"</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D29,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D29+1,1)),"        }","        },"))</f>
         <v xml:space="preserve">        },</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="5">
         <v>11</v>
       </c>
@@ -951,7 +1021,7 @@
     <row r="43" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E43" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D41,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D41+1,1)),"        }","        },"))</f>
-        <v xml:space="preserve">        }</v>
+        <v xml:space="preserve">        },</v>
       </c>
     </row>
     <row r="44" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -960,19 +1030,19 @@
       </c>
       <c r="E44" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D44,1)),"",_xlfn.CONCAT("        ",CHAR(34),INDEX($A$2:$B$110,D44,1),CHAR(34),": {"))</f>
-        <v/>
+        <v xml:space="preserve">        "_c": {</v>
       </c>
     </row>
     <row r="45" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D44,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D44,2),CHAR(34)))</f>
-        <v/>
+        <v xml:space="preserve">            "iconPath": "./icons/png/c.png"</v>
       </c>
     </row>
     <row r="46" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D44,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D44+1,1)),"        }","        },"))</f>
-        <v/>
+        <v xml:space="preserve">        },</v>
       </c>
     </row>
     <row r="47" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -981,19 +1051,19 @@
       </c>
       <c r="E47" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D47,1)),"",_xlfn.CONCAT("        ",CHAR(34),INDEX($A$2:$B$110,D47,1),CHAR(34),": {"))</f>
-        <v/>
+        <v xml:space="preserve">        "_c++": {</v>
       </c>
     </row>
     <row r="48" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D47,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D47,2),CHAR(34)))</f>
-        <v/>
+        <v xml:space="preserve">            "iconPath": "./icons/png/c++.png"</v>
       </c>
     </row>
     <row r="49" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D47,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D47+1,1)),"        }","        },"))</f>
-        <v/>
+        <v xml:space="preserve">        },</v>
       </c>
     </row>
     <row r="50" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1002,19 +1072,19 @@
       </c>
       <c r="E50" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D50,1)),"",_xlfn.CONCAT("        ",CHAR(34),INDEX($A$2:$B$110,D50,1),CHAR(34),": {"))</f>
-        <v/>
+        <v xml:space="preserve">        "_css": {</v>
       </c>
     </row>
     <row r="51" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D50,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D50,2),CHAR(34)))</f>
-        <v/>
+        <v xml:space="preserve">            "iconPath": "./icons/png/css.png"</v>
       </c>
     </row>
     <row r="52" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D50,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D50+1,1)),"        }","        },"))</f>
-        <v/>
+        <v xml:space="preserve">        },</v>
       </c>
     </row>
     <row r="53" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1023,19 +1093,19 @@
       </c>
       <c r="E53" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D53,1)),"",_xlfn.CONCAT("        ",CHAR(34),INDEX($A$2:$B$110,D53,1),CHAR(34),": {"))</f>
-        <v/>
+        <v xml:space="preserve">        "_closure": {</v>
       </c>
     </row>
     <row r="54" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D53,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D53,2),CHAR(34)))</f>
-        <v/>
+        <v xml:space="preserve">            "iconPath": "./icons/png/closure.png"</v>
       </c>
     </row>
     <row r="55" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D53,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D53+1,1)),"        }","        },"))</f>
-        <v/>
+        <v xml:space="preserve">        },</v>
       </c>
     </row>
     <row r="56" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,19 +1114,19 @@
       </c>
       <c r="E56" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D56,1)),"",_xlfn.CONCAT("        ",CHAR(34),INDEX($A$2:$B$110,D56,1),CHAR(34),": {"))</f>
-        <v/>
+        <v xml:space="preserve">        "_coffee": {</v>
       </c>
     </row>
     <row r="57" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D56,1)),"",_xlfn.CONCAT("            ",CHAR(34),"iconPath",CHAR(34),": ",CHAR(34),INDEX($A$2:$B$110,D56,2),CHAR(34)))</f>
-        <v/>
+        <v xml:space="preserve">            "iconPath": "./icons/png/coffee.png"</v>
       </c>
     </row>
     <row r="58" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="str">
         <f>IF(ISBLANK(INDEX($A$2:$B$110,D56,1)),"",IF(ISBLANK(INDEX($A$2:$B$110,D56+1,1)),"        }","        },"))</f>
-        <v/>
+        <v xml:space="preserve">        }</v>
       </c>
     </row>
     <row r="59" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
